--- a/ModLanguages.xlsx
+++ b/ModLanguages.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="307">
   <si>
     <t>English</t>
   </si>
@@ -165,6 +165,792 @@
   </si>
   <si>
     <t>内鬼设置</t>
+  </si>
+  <si>
+    <t>role.Captain.name</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>船长</t>
+  </si>
+  <si>
+    <t>role.Captain.Description</t>
+  </si>
+  <si>
+    <t>Keep your crew safe</t>
+  </si>
+  <si>
+    <t>保证你船员的人身安全</t>
+  </si>
+  <si>
+    <t>role.Captain.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Captain.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Captain.buttonText</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>紧急会议</t>
+  </si>
+  <si>
+    <t>Captain.CallCooldownOption</t>
+  </si>
+  <si>
+    <t>Calling cooldown</t>
+  </si>
+  <si>
+    <t>远程紧急会议冷却时间</t>
+  </si>
+  <si>
+    <t>role.Cloak.name</t>
+  </si>
+  <si>
+    <t>Cloak</t>
+  </si>
+  <si>
+    <t>隐身人</t>
+  </si>
+  <si>
+    <t>role.Cloak.Description</t>
+  </si>
+  <si>
+    <t>You can go invisible</t>
+  </si>
+  <si>
+    <t>来无影去无踪</t>
+  </si>
+  <si>
+    <t>role.Cloak.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Cloak.TaskHint</t>
+  </si>
+  <si>
+    <t>Go invisible and try to catch the impostor</t>
+  </si>
+  <si>
+    <t>变得透明并尝试抓住伪装者</t>
+  </si>
+  <si>
+    <t>role.Cloak.buttonText</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>Cloak.CloakHideCooldown</t>
+  </si>
+  <si>
+    <t>Hide cooldown</t>
+  </si>
+  <si>
+    <t>隐身技能冷却时间</t>
+  </si>
+  <si>
+    <t>Cloak.CloakHideDuration</t>
+  </si>
+  <si>
+    <t>Hide duration</t>
+  </si>
+  <si>
+    <t>隐身技能持续时间</t>
+  </si>
+  <si>
+    <t>role.Doctor.name</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>role.Doctor.Description</t>
+  </si>
+  <si>
+    <t>Heal the crew</t>
+  </si>
+  <si>
+    <t>保证船员身体健康</t>
+  </si>
+  <si>
+    <t>role.Doctor.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Doctor.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Doctor.buttonText</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>复活</t>
+  </si>
+  <si>
+    <t>Doctor.ReviveCooldown</t>
+  </si>
+  <si>
+    <t>Revive cooldown</t>
+  </si>
+  <si>
+    <t>复活技能冷却时间</t>
+  </si>
+  <si>
+    <t>role.Inspector.name</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t>调查员</t>
+  </si>
+  <si>
+    <t>role.Inspector.Description</t>
+  </si>
+  <si>
+    <t>Follow the bad guys</t>
+  </si>
+  <si>
+    <t>默默的跟踪坏人</t>
+  </si>
+  <si>
+    <t>role.Inspector.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Inspector.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Inspector.buttonText</t>
+  </si>
+  <si>
+    <t>Inspector.FootstepVisibleTime</t>
+  </si>
+  <si>
+    <t>Time footsteps stay visible</t>
+  </si>
+  <si>
+    <t>脚印保留时间</t>
+  </si>
+  <si>
+    <t>Inspector.TimeBetween</t>
+  </si>
+  <si>
+    <t>Time between each footstep</t>
+  </si>
+  <si>
+    <t>脚印间隔时间</t>
+  </si>
+  <si>
+    <t>role.Mayor.name</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>市长</t>
+  </si>
+  <si>
+    <t>role.Mayor.Description</t>
+  </si>
+  <si>
+    <t>Your vote counts twice</t>
+  </si>
+  <si>
+    <t>你的票更有含金量</t>
+  </si>
+  <si>
+    <t>role.Mayor.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Mayor.TaskHint</t>
+  </si>
+  <si>
+    <t>Your vote counts twice. Use it wisely!</t>
+  </si>
+  <si>
+    <t>你的票更有含金量.正确的使用它!</t>
+  </si>
+  <si>
+    <t>role.Mayor.buttonText</t>
+  </si>
+  <si>
+    <t>Mayor.DoubleVoteAmount</t>
+  </si>
+  <si>
+    <t>Double-votes amount</t>
+  </si>
+  <si>
+    <t>双重投票数量</t>
+  </si>
+  <si>
+    <t>role.Sheriff.name</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>警长</t>
+  </si>
+  <si>
+    <t>role.Sheriff.Description</t>
+  </si>
+  <si>
+    <t>Execute the bad guys</t>
+  </si>
+  <si>
+    <t>处决坏人</t>
+  </si>
+  <si>
+    <t>role.Sheriff.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Sheriff.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Sheriff.buttonText</t>
+  </si>
+  <si>
+    <t>Sheriff.CanKillNeutrals</t>
+  </si>
+  <si>
+    <t>Can kill neutrals</t>
+  </si>
+  <si>
+    <t>可以击杀中立职业</t>
+  </si>
+  <si>
+    <t>Sheriff.InnocentVictimDiesAsWell</t>
+  </si>
+  <si>
+    <t>Innocent victim dies as well</t>
+  </si>
+  <si>
+    <t>无辜受害者被击杀同样死亡</t>
+  </si>
+  <si>
+    <t>role.EvilBuilder.name</t>
+  </si>
+  <si>
+    <t>Evil Builder</t>
+  </si>
+  <si>
+    <t>邪恶的建筑师</t>
+  </si>
+  <si>
+    <t>role.EvilBuilder.Description</t>
+  </si>
+  <si>
+    <t>You can make vents</t>
+  </si>
+  <si>
+    <t>你可以制作管道</t>
+  </si>
+  <si>
+    <t>role.EvilBuilder.LongDescription</t>
+  </si>
+  <si>
+    <t>Make vents on the ship</t>
+  </si>
+  <si>
+    <t>在飞船上你可以制作出新的管道</t>
+  </si>
+  <si>
+    <t>role.EvilBuilder.TaskHint</t>
+  </si>
+  <si>
+    <t>role.EvilBuilder.buttonText</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>构建</t>
+  </si>
+  <si>
+    <t>EvilBuilder.VentBuildAmount</t>
+  </si>
+  <si>
+    <t>Amount of vents</t>
+  </si>
+  <si>
+    <t>最大制作管道数量</t>
+  </si>
+  <si>
+    <t>role.Glaciator.name</t>
+  </si>
+  <si>
+    <t>Glaciator</t>
+  </si>
+  <si>
+    <t>冰冻者</t>
+  </si>
+  <si>
+    <t>role.Glaciator.Description</t>
+  </si>
+  <si>
+    <t>Freeze everyone</t>
+  </si>
+  <si>
+    <t>冰冻所有人</t>
+  </si>
+  <si>
+    <t>role.Glaciator.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Glaciator.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Glaciator.buttonText</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>Glaciator.FreezeCooldown</t>
+  </si>
+  <si>
+    <t>Freeze cooldown</t>
+  </si>
+  <si>
+    <t>冻结技能冷却时间</t>
+  </si>
+  <si>
+    <t>Glaciator.FreezeDuration</t>
+  </si>
+  <si>
+    <t>Freeze duration</t>
+  </si>
+  <si>
+    <t>冻结持续时间</t>
+  </si>
+  <si>
+    <t>role.Janitor.name</t>
+  </si>
+  <si>
+    <t>Janitor</t>
+  </si>
+  <si>
+    <t>清理者</t>
+  </si>
+  <si>
+    <t>role.Janitor.Description</t>
+  </si>
+  <si>
+    <t>Clean dead bodies of the other Impostors</t>
+  </si>
+  <si>
+    <t>帮助其他伪装者清理尸体</t>
+  </si>
+  <si>
+    <t>role.Janitor.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Janitor.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Janitor.buttonText</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>清理</t>
+  </si>
+  <si>
+    <t>Janitor.CanKill</t>
+  </si>
+  <si>
+    <t>Can kill</t>
+  </si>
+  <si>
+    <t>可以击杀</t>
+  </si>
+  <si>
+    <t>role.Ninja.name</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>role.Ninja.Description</t>
+  </si>
+  <si>
+    <t>你可以隐身</t>
+  </si>
+  <si>
+    <t>role.Ninja.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Ninja.TaskHint</t>
+  </si>
+  <si>
+    <t>Go invisible and kill the crewmates secretly</t>
+  </si>
+  <si>
+    <t>隐形并悄悄杀死船员们</t>
+  </si>
+  <si>
+    <t>role.Ninja.buttonText</t>
+  </si>
+  <si>
+    <t>Ninja.HideCooldown</t>
+  </si>
+  <si>
+    <t>隐身技能冷却</t>
+  </si>
+  <si>
+    <t>Ninja.HideDuration</t>
+  </si>
+  <si>
+    <t>隐身持续时间</t>
+  </si>
+  <si>
+    <t>role.Undertaker.name</t>
+  </si>
+  <si>
+    <t>Undertaker</t>
+  </si>
+  <si>
+    <t>送葬者</t>
+  </si>
+  <si>
+    <t>role.Undertaker.Description</t>
+  </si>
+  <si>
+    <t>Drag the bodies away</t>
+  </si>
+  <si>
+    <t>拖走尸体</t>
+  </si>
+  <si>
+    <t>role.Undertaker.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Undertaker.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Undertaker.buttonTextDrag</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>拿起</t>
+  </si>
+  <si>
+    <t>role.Undertaker.buttonTextDrop</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>放下</t>
+  </si>
+  <si>
+    <t>role.Jester.name</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>role.Jester.Description</t>
+  </si>
+  <si>
+    <t>Trick the crew</t>
+  </si>
+  <si>
+    <t>欺骗船员</t>
+  </si>
+  <si>
+    <t>role.Jester.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Jester.TaskHint</t>
+  </si>
+  <si>
+    <t>Trick the crew into voting you out</t>
+  </si>
+  <si>
+    <t>欺骗船员以至于被投出去</t>
+  </si>
+  <si>
+    <t>role.Jester.buttonText</t>
+  </si>
+  <si>
+    <t>role.Jester.winText</t>
+  </si>
+  <si>
+    <t>Jester won</t>
+  </si>
+  <si>
+    <t>垂死病中惊坐起
+小丑竟是我自己</t>
+  </si>
+  <si>
+    <t>Jester.CanVent</t>
+  </si>
+  <si>
+    <t>Can vent</t>
+  </si>
+  <si>
+    <t>可以使用管道</t>
+  </si>
+  <si>
+    <t>role.Jinx.name</t>
+  </si>
+  <si>
+    <t>Jinx</t>
+  </si>
+  <si>
+    <t>幸存者</t>
+  </si>
+  <si>
+    <t>role.Jinx.Description</t>
+  </si>
+  <si>
+    <t>Survive the longest</t>
+  </si>
+  <si>
+    <t>活着</t>
+  </si>
+  <si>
+    <t>role.Jinx.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Jinx.TaskHint</t>
+  </si>
+  <si>
+    <t>Be one of the last three survivors</t>
+  </si>
+  <si>
+    <t>做活到最后的人</t>
+  </si>
+  <si>
+    <t>role.Jinx.buttonText</t>
+  </si>
+  <si>
+    <t>role.Jinx.winText</t>
+  </si>
+  <si>
+    <t>Jinx won</t>
+  </si>
+  <si>
+    <t>幸存者胜利</t>
+  </si>
+  <si>
+    <t>role.Traitor.name</t>
+  </si>
+  <si>
+    <t>Traitor</t>
+  </si>
+  <si>
+    <t>背叛者</t>
+  </si>
+  <si>
+    <t>role.Traitor.Description</t>
+  </si>
+  <si>
+    <t>Betray the crewmates</t>
+  </si>
+  <si>
+    <t>背叛船员们</t>
+  </si>
+  <si>
+    <t>role.Traitor.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Traitor.TaskHint</t>
+  </si>
+  <si>
+    <t>Betray the crewmates after you completed your tasks</t>
+  </si>
+  <si>
+    <t>在你完成任务后背叛船员们</t>
+  </si>
+  <si>
+    <t>role.Traitor.buttonText</t>
+  </si>
+  <si>
+    <t>role.Traitor.winText</t>
+  </si>
+  <si>
+    <t>role.Troll.name</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>瘟疫之源</t>
+  </si>
+  <si>
+    <t>role.Troll.Description</t>
+  </si>
+  <si>
+    <t>Get killed</t>
+  </si>
+  <si>
+    <t>被杀死</t>
+  </si>
+  <si>
+    <t>role.Troll.LongDescription</t>
+  </si>
+  <si>
+    <t>role.Troll.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Troll.buttonText</t>
+  </si>
+  <si>
+    <t>Infect</t>
+  </si>
+  <si>
+    <t>感染</t>
+  </si>
+  <si>
+    <t>role.Troll.winText</t>
+  </si>
+  <si>
+    <t>Troll won</t>
+  </si>
+  <si>
+    <t>瘟疫之源胜利</t>
+  </si>
+  <si>
+    <t>role.Zombie.name</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>role.Zombie.Description</t>
+  </si>
+  <si>
+    <t>Infect every crewmate</t>
+  </si>
+  <si>
+    <t>感染所有船员</t>
+  </si>
+  <si>
+    <t>role.Zombie.LongDescription</t>
+  </si>
+  <si>
+    <t>Spread the zombie disease to every other crewmate and turn them into zombies too but watch out!
+You can't infect impostors because they already have a different disease</t>
+  </si>
+  <si>
+    <t>将僵尸病毒传播给其他所有船员，把他们也变成僵尸，但注意！
+你无法感染内鬼，因为他们已携带不同的病毒。</t>
+  </si>
+  <si>
+    <t>role.Zombie.TaskHint</t>
+  </si>
+  <si>
+    <t>role.Zombie.buttonText</t>
+  </si>
+  <si>
+    <t>role.Zombie.winText</t>
+  </si>
+  <si>
+    <t>Zombies infected the crew</t>
+  </si>
+  <si>
+    <t>僵尸感染了所有人</t>
+  </si>
+  <si>
+    <t>Zombie.Reach</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>Zombie.Reach.Small</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>Zombie.Reach.Medium</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>Zombie.Reach.Long</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>Zombie.InfectCooldown</t>
+  </si>
+  <si>
+    <t>Infect cooldown</t>
+  </si>
+  <si>
+    <t>感染技能冷却</t>
+  </si>
+  <si>
+    <t>Zombie.SpeedMod</t>
+  </si>
+  <si>
+    <t>Speed modification</t>
+  </si>
+  <si>
+    <t>速度增加</t>
+  </si>
+  <si>
+    <t>Zombie.LightMod</t>
+  </si>
+  <si>
+    <t>Vision modification</t>
+  </si>
+  <si>
+    <t>视野增加</t>
+  </si>
+  <si>
+    <t>Zombie.VisibleToEveryone</t>
+  </si>
+  <si>
+    <t>Visible to everyone</t>
+  </si>
+  <si>
+    <t>所有人可见</t>
   </si>
 </sst>
 </file>
@@ -792,13 +1578,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1111,10 +1900,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="O114" sqref="O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1286,6 +2075,1042 @@
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" ht="28.5" spans="1:15">
+      <c r="A124" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" ht="42.75" spans="1:15">
+      <c r="A155" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
